--- a/FALCON/ExampleDatasets/ToyDiff/ToyDiff_meas_CL4c.xlsx
+++ b/FALCON/ExampleDatasets/ToyDiff/ToyDiff_meas_CL4c.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastien.delandtshe\Documents\MATLAB\FALCON-current\ExampleDatasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\philippe.lucarelli\Desktop\FALCON-dev\FALCON-dev\FALCON\ExampleDatasets\ToyDiff\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13848" windowHeight="11088" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13845" windowHeight="11085"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Housekeeping</t>
   </si>
@@ -48,6 +48,57 @@
   </si>
   <si>
     <t>TF</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>cond1</t>
+  </si>
+  <si>
+    <t>cond2</t>
+  </si>
+  <si>
+    <t>cond3</t>
+  </si>
+  <si>
+    <t>cond4</t>
+  </si>
+  <si>
+    <t>cond5</t>
+  </si>
+  <si>
+    <t>cond6</t>
+  </si>
+  <si>
+    <t>cond7</t>
+  </si>
+  <si>
+    <t>cond8</t>
+  </si>
+  <si>
+    <t>cond9</t>
+  </si>
+  <si>
+    <t>cond10</t>
+  </si>
+  <si>
+    <t>cond11</t>
+  </si>
+  <si>
+    <t>cond12</t>
+  </si>
+  <si>
+    <t>cond13</t>
+  </si>
+  <si>
+    <t>cond14</t>
+  </si>
+  <si>
+    <t>cond15</t>
+  </si>
+  <si>
+    <t>cond16</t>
   </si>
 </sst>
 </file>
@@ -854,40 +905,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -898,67 +952,79 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -966,27 +1032,33 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>1</v>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -995,15 +1067,18 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>1</v>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1015,15 +1090,18 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1032,52 +1110,61 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>1</v>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1085,44 +1172,53 @@
       <c r="E13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>1</v>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>1</v>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1131,15 +1227,18 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1151,6 +1250,9 @@
         <v>1</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
@@ -1163,13 +1265,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1183,7 +1285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1197,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.90196078431372595</v>
       </c>
@@ -1211,7 +1313,7 @@
         <v>0.83021914648212203</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.90196078431372595</v>
       </c>
@@ -1225,7 +1327,7 @@
         <v>0.83021914648212203</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.90196078431372595</v>
       </c>
@@ -1239,7 +1341,7 @@
         <v>0.83021914648212203</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1253,7 +1355,7 @@
         <v>0.90373280943025502</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1267,7 +1369,7 @@
         <v>0.91866404715127703</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1281,7 +1383,7 @@
         <v>0.91866404715127703</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1295,7 +1397,7 @@
         <v>0.91866404715127703</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1309,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.45142296368989199</v>
       </c>
@@ -1323,7 +1425,7 @@
         <v>0.445622476190843</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.45142296368989199</v>
       </c>
@@ -1337,7 +1439,7 @@
         <v>0.445622476190843</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.45142296368989199</v>
       </c>
@@ -1351,7 +1453,7 @@
         <v>0.445622476190843</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.5</v>
       </c>
@@ -1365,7 +1467,7 @@
         <v>0.43860510805501002</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.5</v>
       </c>
@@ -1379,7 +1481,7 @@
         <v>0.48536345776031398</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.5</v>
       </c>
@@ -1393,7 +1495,7 @@
         <v>0.48536345776031398</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.5</v>
       </c>
@@ -1420,9 +1522,9 @@
       <selection activeCell="A2" sqref="A2:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1436,7 +1538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -1450,7 +1552,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.01</v>
       </c>
@@ -1464,7 +1566,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.01</v>
       </c>
@@ -1478,7 +1580,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.01</v>
       </c>
@@ -1492,7 +1594,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.01</v>
       </c>
@@ -1506,7 +1608,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.01</v>
       </c>
@@ -1520,7 +1622,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.01</v>
       </c>
@@ -1534,7 +1636,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.01</v>
       </c>
@@ -1548,7 +1650,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.01</v>
       </c>
@@ -1562,7 +1664,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.01</v>
       </c>
@@ -1576,7 +1678,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.01</v>
       </c>
@@ -1590,7 +1692,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.01</v>
       </c>
@@ -1604,7 +1706,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.01</v>
       </c>
@@ -1618,7 +1720,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.01</v>
       </c>
@@ -1632,7 +1734,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.01</v>
       </c>
@@ -1646,7 +1748,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.01</v>
       </c>
